--- a/premium calculations.xlsx
+++ b/premium calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\PolicyCenter_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E941E7-92F5-49FF-B18B-1CDBAD365545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF441CB3-0A12-4DAA-8847-3B270E3C4148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Label</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>issuance</t>
+  </si>
+  <si>
+    <t>Issuance</t>
+  </si>
+  <si>
+    <t>Change</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +441,7 @@
     <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -451,10 +457,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -463,8 +480,23 @@
         <v>9</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -475,12 +507,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>

--- a/premium calculations.xlsx
+++ b/premium calculations.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\PolicyCenter_TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF441CB3-0A12-4DAA-8847-3B270E3C4148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715AB806-D2C1-441A-9B1A-DB0DDD5E7A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="TS-13" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Label</t>
   </si>
@@ -28,12 +29,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>2081816037</t>
-  </si>
-  <si>
     <t>1505313809</t>
   </si>
   <si>
@@ -65,6 +60,93 @@
   </si>
   <si>
     <t>Change</t>
+  </si>
+  <si>
+    <t>$1,358.00</t>
+  </si>
+  <si>
+    <t>PolicyIssuanceTS13</t>
+  </si>
+  <si>
+    <t>PolicyChangeTS13</t>
+  </si>
+  <si>
+    <t>PolicyIssuanceTS12</t>
+  </si>
+  <si>
+    <t>PolicyChangeTS12</t>
+  </si>
+  <si>
+    <t>PolicyIssuanceTS14</t>
+  </si>
+  <si>
+    <t>PolicyChangeTS14</t>
+  </si>
+  <si>
+    <t>PolicyIssuanceTS15</t>
+  </si>
+  <si>
+    <t>PolicyChangeTS15</t>
+  </si>
+  <si>
+    <t>PolicyIssuanceTS16</t>
+  </si>
+  <si>
+    <t>PolicyChangeTS16</t>
+  </si>
+  <si>
+    <t>PolicyIssuanceTS17</t>
+  </si>
+  <si>
+    <t>PolicyChangeTS17</t>
+  </si>
+  <si>
+    <t>PolicyCancellationTS15</t>
+  </si>
+  <si>
+    <t>PolicyCancellationTS13</t>
+  </si>
+  <si>
+    <t>PolicyCancellationTS12</t>
+  </si>
+  <si>
+    <t>PolicyCancellationTS14</t>
+  </si>
+  <si>
+    <t>PolicyCancellationTS16</t>
+  </si>
+  <si>
+    <t>PolicyCancellationTS17</t>
+  </si>
+  <si>
+    <t>PolicyRewriteNewTermTS16</t>
+  </si>
+  <si>
+    <t>issanceTS01</t>
+  </si>
+  <si>
+    <t>Scenario1</t>
+  </si>
+  <si>
+    <t>ChangeTS01</t>
+  </si>
+  <si>
+    <t>Scenario2</t>
+  </si>
+  <si>
+    <t>issanceTS02</t>
+  </si>
+  <si>
+    <t>ChangeTS02</t>
+  </si>
+  <si>
+    <t>PolicyManualRenewalTS14</t>
+  </si>
+  <si>
+    <t>($1,024.00)</t>
+  </si>
+  <si>
+    <t>($1,028.00)</t>
   </si>
 </sst>
 </file>
@@ -431,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,96 +531,116 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -548,4 +650,149 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6162C2B7-9ECD-4CFC-8041-9BA305CE846D}">
+  <dimension ref="A2:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>